--- a/RNN_python/schd_sam_output_data/anom_data13.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data13.xlsx
@@ -426,240 +426,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="D2" t="n">
-        <v>9.919118453779362</v>
+        <v>-10.71019324958502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43392.04166666666</v>
+        <v>43399.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7.13511124501423</v>
+        <v>-22.67435829477039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43392.08333333334</v>
+        <v>43399.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>69.9557160413724</v>
+        <v>-11.1612512309664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43392.125</v>
+        <v>43399.125</v>
       </c>
       <c r="D5" t="n">
-        <v>64.75205100182606</v>
+        <v>-4.256260691253701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43392.16666666666</v>
+        <v>43399.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>87.21518893905589</v>
+        <v>5.969373066293812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43392.20833333334</v>
+        <v>43399.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>57.78294008633876</v>
+        <v>8.746192307742334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43392.25</v>
+        <v>43399.25</v>
       </c>
       <c r="D8" t="n">
-        <v>51.89469023737255</v>
+        <v>57.22656246775626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43392.29166666666</v>
+        <v>43399.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>61.4695580470979</v>
+        <v>239.3218954189325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43392.33333333334</v>
+        <v>43399.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>87.14173352921367</v>
+        <v>443.5846996618956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43392.375</v>
+        <v>43399.375</v>
       </c>
       <c r="D11" t="n">
-        <v>151.2121764351974</v>
+        <v>443.634548001791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43392.41666666666</v>
+        <v>43399.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>277.3115087615551</v>
+        <v>371.8841923722638</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43392.45833333334</v>
+        <v>43399.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>390.1871560392921</v>
+        <v>296.8592478313914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43392.5</v>
+        <v>43399.5</v>
       </c>
       <c r="D14" t="n">
-        <v>388.2910240998514</v>
+        <v>242.5656061574111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43392.54166666666</v>
+        <v>43399.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>324.5111190313862</v>
+        <v>199.5329843227039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43392.58333333334</v>
+        <v>43399.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>249.3992115334872</v>
+        <v>148.9523959800712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43392.625</v>
+        <v>43399.625</v>
       </c>
       <c r="D17" t="n">
-        <v>194.3435632188152</v>
+        <v>104.5651433956949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43392.66666666666</v>
+        <v>43399.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>140.5465314023774</v>
+        <v>75.31239102194431</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43392.70833333334</v>
+        <v>43399.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2688728713658</v>
+        <v>49.34855731380384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43392.75</v>
+        <v>43399.75</v>
       </c>
       <c r="D20" t="n">
-        <v>90.51331926569418</v>
+        <v>28.24695115180769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43392.79166666666</v>
+        <v>43399.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>69.66228753321096</v>
+        <v>15.02550541769128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43392.83333333334</v>
+        <v>43399.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>50.72731255477611</v>
+        <v>9.281122844437419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43392.875</v>
+        <v>43399.875</v>
       </c>
       <c r="D23" t="n">
-        <v>32.83940785931451</v>
+        <v>9.639433613157493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43392.91666666666</v>
+        <v>43399.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11.23327745401545</v>
+        <v>15.71006549461849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43392.95833333334</v>
+        <v>43399.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-18.83585782997632</v>
+        <v>21.75386679825716</v>
       </c>
     </row>
   </sheetData>
@@ -717,17 +717,17 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43392.04166666666</v>
+        <v>43399.04166666666</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -737,220 +737,220 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43392.08333333334</v>
+        <v>43399.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43392.125</v>
+        <v>43399.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43392.16666666666</v>
+        <v>43399.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43392.20833333334</v>
+        <v>43399.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43392.25</v>
+        <v>43399.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43392.29166666666</v>
+        <v>43399.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43392.33333333334</v>
+        <v>43399.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>496</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43392.375</v>
+        <v>43399.375</v>
       </c>
       <c r="D11" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43392.41666666666</v>
+        <v>43399.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43392.45833333334</v>
+        <v>43399.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>242</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43392.5</v>
+        <v>43399.5</v>
       </c>
       <c r="D14" t="n">
-        <v>258</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43392.54166666666</v>
+        <v>43399.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43392.58333333334</v>
+        <v>43399.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43392.625</v>
+        <v>43399.625</v>
       </c>
       <c r="D17" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43392.66666666666</v>
+        <v>43399.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43392.70833333334</v>
+        <v>43399.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43392.75</v>
+        <v>43399.75</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43392.79166666666</v>
+        <v>43399.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43392.83333333334</v>
+        <v>43399.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43392.875</v>
+        <v>43399.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43392.91666666666</v>
+        <v>43399.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43392.95833333334</v>
+        <v>43399.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data13.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data13.xlsx
@@ -422,244 +422,244 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43399</v>
+        <v>43481</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.71019324958502</v>
+        <v>-30.31449344939558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43399.04166666666</v>
+        <v>43481.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-22.67435829477039</v>
+        <v>-17.71459094085972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43399.08333333334</v>
+        <v>43481.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.1612512309664</v>
+        <v>-22.33285304990534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43399.125</v>
+        <v>43481.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.256260691253701</v>
+        <v>-19.87912073948127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43399.16666666666</v>
+        <v>43481.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>5.969373066293812</v>
+        <v>-12.0827697436771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43399.20833333334</v>
+        <v>43481.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8.746192307742334</v>
+        <v>-10.14038966392525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43399.25</v>
+        <v>43481.25</v>
       </c>
       <c r="D8" t="n">
-        <v>57.22656246775626</v>
+        <v>17.62399946512225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43399.29166666666</v>
+        <v>43481.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>239.3218954189325</v>
+        <v>354.7162501020197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43399.33333333334</v>
+        <v>43481.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>443.5846996618956</v>
+        <v>365.5909114136564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43399.375</v>
+        <v>43481.375</v>
       </c>
       <c r="D11" t="n">
-        <v>443.634548001791</v>
+        <v>364.6706383187764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43399.41666666666</v>
+        <v>43481.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>371.8841923722638</v>
+        <v>264.9085896088242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43399.45833333334</v>
+        <v>43481.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>296.8592478313914</v>
+        <v>267.4634786692378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43399.5</v>
+        <v>43481.5</v>
       </c>
       <c r="D14" t="n">
-        <v>242.5656061574111</v>
+        <v>233.3042351230129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43399.54166666666</v>
+        <v>43481.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>199.5329843227039</v>
+        <v>170.1577991325422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43399.58333333334</v>
+        <v>43481.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>148.9523959800712</v>
+        <v>133.6244828223981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43399.625</v>
+        <v>43481.625</v>
       </c>
       <c r="D17" t="n">
-        <v>104.5651433956949</v>
+        <v>102.0031022487056</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43399.66666666666</v>
+        <v>43481.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>75.31239102194431</v>
+        <v>68.13824930165373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43399.70833333334</v>
+        <v>43481.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>49.34855731380384</v>
+        <v>45.51831582790371</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43399.75</v>
+        <v>43481.75</v>
       </c>
       <c r="D20" t="n">
-        <v>28.24695115180769</v>
+        <v>31.82438211672314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43399.79166666666</v>
+        <v>43481.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>15.02550541769128</v>
+        <v>22.59612697301284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43399.83333333334</v>
+        <v>43481.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9.281122844437419</v>
+        <v>16.83169786432249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43399.875</v>
+        <v>43481.875</v>
       </c>
       <c r="D23" t="n">
-        <v>9.639433613157493</v>
+        <v>13.52261026935578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43399.91666666666</v>
+        <v>43481.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15.71006549461849</v>
+        <v>12.18142694905087</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43399.95833333334</v>
+        <v>43481.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>21.75386679825716</v>
+        <v>4.967671278513052</v>
       </c>
     </row>
   </sheetData>
@@ -713,21 +713,21 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43399</v>
+        <v>43481</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43399.04166666666</v>
+        <v>43481.04166666666</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -737,27 +737,27 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43399.08333333334</v>
+        <v>43481.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43399.125</v>
+        <v>43481.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43399.16666666666</v>
+        <v>43481.16666666666</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -767,7 +767,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43399.20833333334</v>
+        <v>43481.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -777,180 +777,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43399.25</v>
+        <v>43481.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43399.29166666666</v>
+        <v>43481.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43399.33333333334</v>
+        <v>43481.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>466</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43399.375</v>
+        <v>43481.375</v>
       </c>
       <c r="D11" t="n">
-        <v>408</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43399.41666666666</v>
+        <v>43481.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43399.45833333334</v>
+        <v>43481.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>306</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43399.5</v>
+        <v>43481.5</v>
       </c>
       <c r="D14" t="n">
-        <v>334</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43399.54166666666</v>
+        <v>43481.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43399.58333333334</v>
+        <v>43481.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43399.625</v>
+        <v>43481.625</v>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43399.66666666666</v>
+        <v>43481.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43399.70833333334</v>
+        <v>43481.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43399.75</v>
+        <v>43481.75</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43399.79166666666</v>
+        <v>43481.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43399.83333333334</v>
+        <v>43481.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43399.875</v>
+        <v>43481.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43399.91666666666</v>
+        <v>43481.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43399.95833333334</v>
+        <v>43481.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data13.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data13.xlsx
@@ -426,240 +426,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43481</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>-30.31449344939558</v>
+        <v>2.335606195924086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43481.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.71459094085972</v>
+        <v>2.343938120331686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43481.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-22.33285304990534</v>
+        <v>1.208519353233726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43481.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.87912073948127</v>
+        <v>-0.4251218785959736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43481.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.0827697436771</v>
+        <v>-0.4963387621970554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43481.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.14038966392525</v>
+        <v>1.258570043774498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43481.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>17.62399946512225</v>
+        <v>4.859868784927613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43481.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>354.7162501020197</v>
+        <v>27.43576874670961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43481.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>365.5909114136564</v>
+        <v>407.2277794030205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43481.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>364.6706383187764</v>
+        <v>322.0511593761476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43481.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>264.9085896088242</v>
+        <v>372.417812459371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43481.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>267.4634786692378</v>
+        <v>219.0787464825655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43481.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>233.3042351230129</v>
+        <v>209.5424708649413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43481.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>170.1577991325422</v>
+        <v>172.8861509511696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43481.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>133.6244828223981</v>
+        <v>132.5573819497509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43481.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>102.0031022487056</v>
+        <v>95.62272807583867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43481.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>68.13824930165373</v>
+        <v>66.85386284618467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43481.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>45.51831582790371</v>
+        <v>45.66213062628356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43481.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>31.82438211672314</v>
+        <v>29.9633914596202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43481.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>22.59612697301284</v>
+        <v>19.12759808633248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43481.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>16.83169786432249</v>
+        <v>12.18578909868299</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43481.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13.52261026935578</v>
+        <v>7.920797500525808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43481.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12.18142694905087</v>
+        <v>5.347378775421006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43481.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.967671278513052</v>
+        <v>7.261074690910277</v>
       </c>
     </row>
   </sheetData>
@@ -717,17 +717,17 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43481</v>
+        <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43481.04166666666</v>
+        <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -737,220 +737,220 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43481.08333333334</v>
+        <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43481.125</v>
+        <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43481.16666666666</v>
+        <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43481.20833333334</v>
+        <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43481.25</v>
+        <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43481.29166666666</v>
+        <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43481.33333333334</v>
+        <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>392</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43481.375</v>
+        <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>273</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43481.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>359</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43481.45833333334</v>
+        <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43481.5</v>
+        <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43481.54166666666</v>
+        <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43481.58333333334</v>
+        <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43481.625</v>
+        <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43481.66666666666</v>
+        <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43481.70833333334</v>
+        <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43481.75</v>
+        <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43481.79166666666</v>
+        <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43481.83333333334</v>
+        <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43481.875</v>
+        <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43481.91666666666</v>
+        <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43481.95833333334</v>
+        <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
